--- a/horseland_products_described.xlsx
+++ b/horseland_products_described.xlsx
@@ -497,7 +497,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA ComFiTec Essential Neck Rug Medium offers handy extra neck coverage when your horse needs a bit more protection from the elements. Designed to attach to compatible rugs, it sits neatly along the neck so your horse can move comfortably while staying covered. Ideal for changeable weather or clipped horses that feel the cold more, it’s a practical add-on you can use as needed rather than all the time. Choosing the right size and adjusting the clips carefully helps keep your horse comfortable and the neck rug sitting where it should.</t>
+          <t>The WEATHERBEETA ComFiTec Essential Neck Rug Medium is a handy add-on when extra neck coverage is needed, giving you the flexibility to match protection to the conditions. Designed to attach neatly to compatible rugs, it sits smoothly along the neckline for a tidy, streamlined finish. Ideal for those in-between days when a full wardrobe change isn’t necessary, it’s simple to put on, remove, and store so you can adjust coverage as the weather shifts and still keep your existing rug set-up in use.</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>The COMBAT Canvas Neck Rug Medium I is a straightforward way to add extra neck coverage to your horse’s existing Combat Standard Neck Rug. A strong 14oz canvas outer teams with a polyester/cotton lining for a balance of toughness and comfort against the coat. Clips attach directly to the matching rug, creating a simple, secure connection that’s easy to put on and take off. The design is made with everyday use in mind, so it suits paddock wear when extra protection is useful. For your horse’s comfort, match it to the correct rug size and check clips and fit regularly.</t>
+          <t>The COMBAT Canvas Neck Rug Medium I is built for practical, everyday use, with a strong 14oz canvas outer and a soft polyester/cotton lining to keep things comfortable. It clips directly to the Combat Standard Neck Rug to extend coverage when extra protection is needed. A versatile and durable design, it sits neatly along the crest and fastens securely, helping it stay in place through regular movement. It’s a straightforward, workmanlike choice when you want the toughness of canvas and the flexibility of removable neck coverage.</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA ComFiTec Plus Dynamic II Neck Rug Medium is designed for horses that need reliable extra neck coverage in cooler, wet conditions. A super strong 1200 denier triple weave outer with Guard-Tec coating offers waterproof and breathable protection, while 220g of polyfill adds warmth along the neck. Three ski clips attach cleanly to a compatible standard neck rug in the WeatherBeeta ComFiTec range, so you can add or remove it as the weather changes. Only the neck rug is included, making it a flexible add-on that works best when fitted correctly and checked regularly for comfort.</t>
+          <t>The WEATHERBEETA ComFiTec Plus Dynamic II Neck Rug Medium is made from a super strong 1200 denier triple weave outer with Guard-Tec coating, designed to be both waterproof and breathable. With 220g polyfill for added warmth, it attaches via three ski clips to a standard neck rug to extend protection through the neck area. Compatible with the WeatherBeeta ComFiTec range, it offers a smooth, close fit along the neckline without changing your main rug. Only the neck rug is included, so it can be matched with your existing ComFiTec rug set-up.</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>The KOOL COAT Cotton Neck Rug adds a light, breathable layer along your horse’s neck, which can be helpful in cooler breezes or when you’d like a bit more coverage. A 60% cotton blend supports natural airflow and comfort, backed by a strong 270g polyester ripstop outer for everyday durability. The three ski clip closure, under-chin clip, and adjustable straps help keep the rug sitting where it should, while the scrunch neck design further reduces slipping. Offering extra protection from cold winds without feeling too heavy, it’s machine washable for straightforward care and regular freshening up.</t>
+          <t>The KOOL COAT Cotton Neck Rug combines a 60% cotton blend for natural breathability with a strong 270g polyester ripstop outer for everyday wear. A three ski clip closure and clip under the chin, plus adjustable connection straps with clips and sliders, are designed to help prevent slipping, while the scrunch neck design helps keep it comfortably in place. It is intended to add extra protection from cold winds when attached correctly to a compatible rug. With a smooth outer finish and machine washable fabric, it’s a practical choice for regular use.</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>The KOOL COAT Classic Neck Rug is built for everyday use when your horse needs a little more coverage along the neck. A strong 270g polyester ripstop outer is made for regular wear, while the three ski clip closure and under-chin clip create a straightforward, secure fastening system. Adjustable connection straps with clips and sliders allow you to fine-tune the fit to sit neatly with the matching rug, and the scrunch neck design helps reduce slipping as your horse moves. Offering some extra protection from cold winds, this neck rug is also machine washable for easy, routine care.</t>
+          <t>The KOOL COAT Classic Neck Rug is made with a strong 270g polyester ripstop outer, suited to everyday use when you need extra coverage. It features a three ski clip closure and a clip under the chin, along with adjustable connection straps with clips and sliders to help keep it secure and reduce slipping. The scrunch neck design helps it sit in place along the neck, providing added protection from cold winds when teamed with an appropriate rug. With a clean, uncomplicated finish and machine washable materials, it’s an easy-care option for routine rugging.</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>The KOOL COAT Neck Rug Lite is a handy option when you’d like lightweight coverage along your horse’s neck without too much bulk. A 205g polyester outer keeps things light for all-season use, while the three ski clip closure and under-chin clip make fastening simple. Adjustable connection straps, clips, and sliders allow you to settle the fit so it stays aligned with your horse’s rug, and the scrunch neck design helps reduce slipping during normal movement. Providing a bit of extra protection from cold winds, this neck rug is also machine washable, making everyday care straightforward.</t>
+          <t>The KOOL COAT Neck Rug Lite is designed as a lighter-weight option, using a 205g polyester outer that’s suitable for use across the seasons when only a bit of extra coverage is needed. A three ski clip closure, clip under the chin, and adjustable connection straps with clips and sliders are intended to help keep it secure and limit slipping. The scrunch neck design helps it stay in place while offering additional protection from cold winds when attached to a compatible rug. With a smooth, simple finish and machine washable fabric, it’s a straightforward piece to add to your rug set.</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Luxe Snug Fleece Neck Rug offers a cosy option when your horse could use extra warmth and softness along the neck and body. Soft fleece fabric sits gently against the coat, while an elastic surcingle around the belly means it can be used on its own without connecting straps if that suits your setup. A full length zip from chin to chest makes putting it on and taking it off more straightforward, and the scrunch neck design helps it stay in place during normal movement. Providing added protection from cold winds, it’s machine washable for easy, regular cleaning.</t>
+          <t>The WEATHERBEETA Luxe Snug Fleece Neck Rug is designed for cosy warmth, made from soft fleece that sits comfortably along the neck. An elastic surcingle around the belly allows it to be used on its own, without needing connecting straps to a rug, while the full length zip from chin to chest makes it easier to put on and take off. The scrunch neck design helps it stay in place, providing extra protection from cold winds during cooler weather. With a neat, streamlined shape and machine washable fabric, it’s a practical choice for regular, considerate use in chillier conditions.</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Cotton Summer Sheet Neck Rug is made to pair with the Summer Sheet Cotton range when you want extra coverage along your horse’s neck in sunny weather. Designed to offer over 90% UV protection together with the sheet, it uses a high cotton content for natural breathability so your horse stays more comfortable in the heat. Lightweight and airy, it attaches cleanly to the matching Summer Sheet, giving you the option to extend coverage when the sun is strong and remove it when it’s not needed. Choosing the right size and checking fit helps maintain comfort through the warmer months.</t>
+          <t>The WEATHERBEETA Cotton Summer Sheet Neck Rug is designed to work with the Summer Sheet range, offering extra coverage when the sun is out. With a high cotton content for natural breathability and materials that provide over 90% UV protection, it’s suited to warmer conditions where lightweight coverage is preferred. It attaches to the matching Summer Sheet to extend protection through the neck without adding unnecessary bulk, and its light, breathable construction helps maintain airflow. With a clean, simple finish, it’s a useful add-on for sunny days when extra coverage is wanted.</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Lined Canvas Neck Rug is a straightforward way to add extra neck protection when you’re already using a compatible WeatherBeeta canvas rug. A strong canvas outer is paired with a polyester/cotton lining, aiming to balance durability with comfort against the horse’s coat. Adjustable straps allow you to secure the neck rug so it sits neatly and moves with your horse rather than shifting around. Designed to be attached when extra coverage is useful and removed when it’s not, it works best when fitted carefully and checked regularly during everyday use.</t>
+          <t>The WEATHERBEETA Lined Canvas Neck Rug adds practical extra coverage, using a strong canvas outer with a polyester/cotton lining for a comfortable feel. Designed to give additional neck protection when required, it features adjustable straps to help achieve a secure attachment and a stable fit through normal movement. It’s compatible with WeatherBeeta canvas rugs, allowing you to extend an existing set-up rather than change your whole rug. With a plain, workmanlike finish, it’s a straightforward solution for those times you want to increase neck coverage as conditions change.</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Cosy Fleece Neck Rug offers a warm, soft layer along your horse’s neck when the temperature drops or cold winds pick up. Made from cosy fleece fabric, it sits comfortably against the coat while an elastic connection with clips and straps helps keep it from slipping. A full length zip from chin to chest makes putting it on and taking it off more straightforward, and the scrunch neck design further supports a secure fit. Providing extra protection from chilly breezes, it’s machine washable so you can keep it clean and fresh with regular, simple care.</t>
+          <t>The WEATHERBEETA Cosy Fleece Neck Rug is made from soft, warm fleece, ideal when extra protection from cold winds is needed. An elastic connection with clips and straps is designed to help prevent slipping, while the full length zip from chin to chest makes it easier to put on and remove without fuss. The scrunch neck design helps keep it sitting comfortably in place along the neck. With a tidy, uniform fleece surface and machine washable fabric, it’s a practical, everyday option for cooler weather when you want to add warmth without changing the main rug.</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Cosy Deluxe Fleece Neck Rug gives your horse a soft, warm layer along the neck for cooler conditions or breezy days. Cosy fleece fabric rests gently on the coat, while an elastic surcingle connection with clips and straps is designed to help keep the rug from slipping during normal movement. A full length zip from chin to chest makes it easier to put on and remove, and the scrunch neck design helps the rug stay in place once adjusted. With zip closure for straightforward use and machine washable fabric, day-to-day care and fit checks are simple.</t>
+          <t>The WEATHERBEETA Cosy Deluxe Fleece Neck Rug is made from warm fleece fabric, intended to add comfort and extra protection in cooler conditions. An elastic surcingle connection with clips and straps is designed to help reduce slipping, while the full length zip from chin to chest allows for easy on and off, supported by a simple zip closure design. The scrunch neck construction helps it stay in place during normal movement. With a smooth, even fleece finish and machine washable materials, it’s an uncomplicated way to add flexible neck coverage to your rugging routine.</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Kool Coat Neck Rug Clips are handy replacements when the original fastenings on your Kool Coat Combo or neck rugs start to wear or go missing. Supplied as a pack of four, they let you refresh existing rugs rather than replace them, helping you keep a secure attachment at the neck. Swapping out old clips for new ones can improve how reliably the rug stays connected, especially during regular paddock movement. For your horse’s comfort, always check clips are correctly attached and lying flat, and inspect them routinely for signs of wear before each use.</t>
+          <t>The KOOL COAT Neck Rug Clips pack includes four replacement clips designed specifically for Kool Coat combo and neck rugs. They offer a straightforward way to refresh worn or lost hardware so rugs can continue to fasten securely as intended. With a simple, tidy metal finish, these clips are made for practical, everyday use and are best fitted carefully to compatible attachment points to help maintain a safe, reliable connection.</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>The Breyer Traditional Rug Float Boot Set adds a fun, sporty touch to your model horse collection while helping you recreate travel days and stable routines in miniature. Designed to sit neatly on traditional-sized Breyer horses, the rug and float boots show off thoughtful detailing that mirrors real gear, encouraging gentle, low‑stress handling in play. It’s a simple way to spark imaginative stories about careful loading, unloading, and time on the float, all while keeping the focus on your horse’s comfort and care.</t>
+          <t>Designed for play and display, the Breyer Rug Float Boot Set adds a realistic touch to model-horse travel scenes. Neatly shaped boots and rug sit smoothly together, helping young enthusiasts imagine sensible rugging and leg protection when travelling or stabled. Sturdy enough for everyday play, this set is a fun way to encourage gentle handling and thoughtful care routines around model gear. Ideal for Breyer Traditional scale models, it pairs well with other accessories for those who like setting up floats, yards, or stable setups in miniature.</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Breyer Traditional Sir Rugger Chex Checkers brings a classic checked rug look to your model horse shelf in a straightforward, no‑fuss way. Styled to suit traditional‑sized Breyer horses, this rug adds an extra layer of character to your display or play scenes without overcomplicating things. Neat lines and a tidy fit help young handlers think about how a rug should sit on a horse, making it a simple, engaging addition to everyday stable stories.</t>
+          <t>Traditional Sir Rugger Chex Checkers brings a characterful model into any collection, with a clean, well-fitted rug that sits neatly along the body for a tidy finish. This model is a simple way to inspire conversations about considerate care, regular grooming, and appropriate rug use in different weather. It works well as a display piece or as part of imaginative play, where children can practise haltering, rugging and un-rugging their models calmly and thoughtfully. A straightforward, no-fuss addition for anyone who enjoys a classic checked-rug look in their lineup.</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Equinade Rug Seal is a straightforward waterproofing treatment for cotton canvas, ready to help keep paddock rugs, tents, tarpaulins and awnings resistant to water. The formula is designed to help reduce the chance of mildew and dry rot when items are used and dried correctly, supporting longer, more reliable use of your existing gear. You can brush it on or apply with a suitable sprayer, allowing you to work around straps and seams with care. Always follow the directions on the container, testing on a small area first and allowing full drying time before putting treated items into regular use.</t>
+          <t>Equinade Rug Seal is a practical waterproofing treatment for cotton canvas, suited to paddock rugs, tents, tarpaulins and awnings that need help resisting water, mildew and dry rot. It leaves a smooth, even finish when applied correctly and can be brushed or sprayed on, making it handy for both quick touch-ups and full reproofing jobs. Always follow the use directions on the container, allow thorough drying, and ensure good ventilation when applying so gear is ready for comfortable, everyday use once treated.</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>The Kincade Adjustable Portable Rug Rail makes hanging rugs and gear straightforward, whether you’re at home, in the float, or at an event. A simple adjustable design lets you set a height that suits your space, so rugs and sheets can air between uses instead of being left in a heap. Lightweight construction means it’s easy to move, yet it offers a steady spot for rugs, coolers, or light blankets. It’s a handy, no‑nonsense addition to any tack or wash bay where you’d like gear stored up off the ground and within easy reach.</t>
+          <t>The Kincade Adjustable Portable Rug Rail is a simple way to keep rugs and sheets off the ground and neatly aired wherever you are. With a smooth, straight rail design, it sits tidily against a wall or fence in a stable, float or yard. Its adjustable and portable nature makes it handy for drying rugs between uses or organising gear on busy days. Set it up securely on a suitable surface and you’ll have a practical spot to hang rugs, saddle pads or lightweight blankets whenever you need them most.</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>The LeMieux Toy Pony Fly Rug brings the look of a real fly rug to playtime, made from gladiator mesh in a navy and mist colour combination that matches the full‑size version. A detachable neck, T‑bar front closure, tail flap and surcingles encourage children to think about how rugs fit and fasten, while still being straightforward to use. The mini rug bag keeps everything together between play sessions, adding to the sense of caring for a pony’s gear properly. Suitable for ages 3 and over, it’s a thoughtful way to introduce gentle, welfare‑focused routines through pretend stable time.</t>
+          <t>The LeMieux Toy Pony Fly Rug is a detailed little rug for toy collections, made from gladiator mesh with tidy binding that gives it a smart, finished look. Featuring a detachable neck, T-bar front closure, tail flap and surcingles, it’s designed to mirror full-size fly rugs so children can practise gentle rugging and un-rugging on their toy ponies. It even comes with a mini rug bag, making it easy to store between play sessions. Suitable for ages 3+, it encourages thoughtful, calm handling habits from an early age.</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>The LeMieux Toy Pony Rug is a soft fleece rug for toy ponies, designed to echo the style of the full‑size LeMieux Fleece Rug. Smooth braiding detail and a hip ornament add a show‑style finish, while simple hook and loop attachments make it quick for small hands to put on and take off. This helps young horse lovers practise calm, careful rug handling in a playful setting. Suitable for ages 3 years and over, it’s a straightforward way to bring familiar rugging routines into everyday pretend play.</t>
+          <t>The LeMieux Toy Pony Rug is a soft fleece rug for toy ponies, finished with neat braiding and a small hip ornament detail to match the full-size version. With simple hook-and-loop fastenings, it’s easy for little hands to put on and take off while practising calm, kind rug-handling skills. The smooth fleece fabric sits nicely along the body for a snug, show-style look in miniature. Suitable for ages 3 years and over, it’s a straightforward way to bring everyday rug routines into make-believe stables and shows.</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>The LeMieux Toy Pony Winners Rug is styled like a real winner’s throw‑over, giving your toy pony a smart navy rug with contrast braiding and neat logo embroidery. A T‑bar front, backed with hook and loop tape, closes over a small bib at the chest, so children can easily manage rugging and unrugging during their play ‘presentations’. Classic braided hip ornaments and a tidy fillet cord finish the look without adding unnecessary fuss. It’s a simple, fun way to celebrate pretend competition success while reinforcing gentle, thoughtful handling around rugging routines.</t>
+          <t>The LeMieux Toy Pony Winners Rug is styled like a classic winners throw-over, with a rich navy body and crisp contrast braiding that frames the edges neatly. Made to echo real prize rugs, it features a T-bar front closure backed with hook-and-loop tape and a small bib at the chest to help it sit in place. Braided hip ornaments and a fillet cord add a touch of show-ring detail for play scenes. It’s ideal for rewarding favourite toy ponies after make-believe competitions while reinforcing gentle, patient handling habits.</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>The Pure Western PW Cactus Snuggle Rug is made from a soft‑feel fabric that’s comfortable to curl up under, with a sherpa plush lining that adds extra warmth on cooler days. Light yet cosy, it works well for relaxing on the couch, in the float between events, or as an extra layer over bedding. The cactus design gives it a relaxed, everyday look that fits easily into family spaces. It’s a practical, easy‑care choice when you want something warm and comforting within reach.</t>
+          <t>The Pure Western PW Cactus Snuggle Rug is made from a soft-feel fabric with a plush sherpa lining for cosy warmth, and it drapes smoothly for comfortable snuggling on the lounge, in the float or at events. Light yet comforting, it’s handy to throw over legs and shoulders on cooler days or to keep in the car or gear box as an extra layer. Easy to fold and pack away, it offers a simple comfort piece for riders, spectators and helpers looking for a warm, relaxed wrap after long days outside.</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>The Pure Western Snuggle Rug in a cow pattern brings a touch of country style to your downtime while keeping things cosy and simple. Soft, comfortable fabric makes it easy to wrap around your shoulders or spread over your lap, whether you’re watching events, travelling, or relaxing at home. The playful cow print adds character without being over the top, turning an everyday throw into a favourite grab‑and‑go layer for cooler moments.</t>
+          <t>The Pure Western Snuggle Rug Cow Pattern is a cosy throw designed for relaxed moments on the couch, around the fire or at events, with a smooth outer surface that folds down neatly when not in use. Soft to the touch and light to carry, it’s easy to keep in the car, float or tack room for an extra layer when the chill sets in. Spread it over your knees or shoulders on cool evenings, then simply shake, fold and stow it away until the next outing or quiet night in.</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>The Roma 2 Arm Tack &amp; Rug/Blanket Rack offers a straightforward way to keep rugs, coolers and tack tidy and off the ground. Two arms give you space to hang a couple of pieces at once, which can help rugs dry more evenly between uses and make it easier to see what you’ve got ready for the day. Mounted in a tack room, wash bay or float, it helps create a more organised area without taking up much room. It’s a practical addition for anyone keen to keep gear easy to reach and well cared for between rides.</t>
+          <t>The Roma 2 Arm Tack &amp; Rug/Blanket Rack offers a straightforward way to hang and air rugs, saddle pads and blankets, with two smooth arms that sit neatly side by side. Ideal for stables, tack rooms or floats, it helps keep gear off the ground and easier to find between rides. Mount it securely on a suitable surface and use it for drying damp items or storing clean rugs ready for the next use. A simple, space-conscious organiser for everyday horse-gear setups and busy shared tack spaces.</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>The Thomas Cook Horse Snuggle Rug in pink is made with a soft‑feel fabric that’s comfortable to pull around your shoulders or drape over your lap when the temperature drops. Light to handle but pleasantly warm, it suits lazy evenings, travel days or time spent watching from the sidelines. The horse design adds a quiet nod to your favourite animal without being fussy, making it just as at home on the couch as in the car. It’s a simple, comforting extra layer you can keep close at hand.</t>
+          <t>The Thomas Cook Horse Snuggle Rug in Pink is a soft-feel throw designed for warmth and comfort, and it folds smoothly for easy storage between uses. Light enough to keep close by but cosy when wrapped around shoulders or knees, it’s a handy layer for cool evenings at home, by the arena or on the road. Keep it in the car, float or lounge for quick access whenever you want a bit of extra warmth without the bulk of a heavy blanket.</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>The Thomas Cook Horse Snuggle Rug in grey is a soft, cosy throw designed for relaxed warmth on cooler days. The gentle fabric feels comfortable against the skin, whether you’re curling up on the lounge, adding a layer in the car, or keeping warm ringside. A subtle horse motif and neutral grey tone make it easy to blend with different rooms and styles without drawing too much attention. It’s a straightforward, reliable option when you want a bit of extra comfort nearby.</t>
+          <t>The Thomas Cook Horse Snuggle Rug in Grey is a soft, comfortable throw that drapes smoothly when wrapped around shoulders or spread over knees. Made for simple warmth on cooler days, it’s easy to fold, pack and keep in the car, float or living room for when the temperature drops. Suitable for everyday use, it gives a gentle, cosy layer without feeling heavy or cumbersome, making it a practical addition to long days ringside, camping trips or relaxed evenings at home.</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>The Thomas Cook TC Sheep Snuggle Rug offers a cosy extra layer for your horse on cooler days, bringing a soft, relaxed feel to everyday use around the stable or yard. Designed with a rugged, practical look, it sits comfortably over the back when correctly fitted, helping to keep your horse warm without unnecessary bulk. The simple, tidy finish makes it easy to match with the rest of your gear, while the snuggly lining encourages you to reach for it whenever the weather turns brisk. A handy choice when you want straightforward warmth and comfort for regular wear.</t>
+          <t>Soft, cosy and easy to live with, the THOMAS COOK Tc Sheep Snuggle Rug is made for everyday use when you want a relaxed, snug layer. The simple, tidy finish keeps the look clean while the fleece-style inner adds a touch of comfort on cooler days. It’s a practical choice for regular wear around the stables or at home, with a straightforward design that’s easy to put on and take off. Just air it out between uses and follow the care label to help it stay comfortable and ready for the next outing.</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>The WeatherBeeta Conquest Rug Bag gives you an easy way to keep rugs together, tidy and ready to go, whether you’re heading to a show or just organising the tack room. Styled with a modern look, it’s made for everyday handling, so you can pack away stable, turnout or show rugs without fuss. Sturdy construction supports regular loading and unloading, while the thoughtful layout helps separate clean and used gear. Carried in the float or stored at home, this rug bag keeps everything in one spot so you can focus on your horse instead of hunting for spare rugs.</t>
+          <t>The WEATHERBEETA Conquest Rug Bag offers a straightforward way to store and carry rugs, combining a modern, tidy outer with practical detailing. Designed to help keep rugs together and easier to transport, it suits travel days, competition gear runs or simply tidying the tack room. Sturdy construction and considered finishes give it a neat, organised feel without being fussy. Zip it up, stash your clean or dry rugs, and they’re ready to grab when you are, helping keep your gear in one place between uses.</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>The WeatherBeeta Rug/Blanket Storage Bag is a straightforward solution for keeping rugs and blankets dry and tidy when they’re not in use. Designed for down-to-earth practicality, it helps protect clean rugs from dust and light moisture in the paddock, stable or tack room when stored sensibly off the ground. The generous space suits folded stable or turnout rugs, so you can swap layers as the weather changes without clutter. With durable fabric and an easy-access opening, it’s a handy addition for anyone who likes their horse gear organised and ready for the next change of season.</t>
+          <t>The WEATHERBEETA Rug/Blanket Storage Bag is a handy solution for keeping rugs and blankets dry and clean when they’re not in use. Its smooth, structured outer helps it sit neatly in a tack room, float or shed, so gear is easier to find and store. Ideal for folded, dry rugs, it helps protect them from dust and splashes around the paddock or stable. Just load it up, zip it closed and your rug is ready for the next change of weather without rummaging through loose piles of gear.</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>The WeatherBeeta Stretchy Rug Tail Cord offers a simple way to secure your horse’s rug while allowing a bit of give as your horse moves. Made with stretch in mind, it helps keep the rug sitting correctly around the hindquarters when fitted to the intended D-rings, supporting natural motion without feeling rigid. The easy-use design suits everyday rugging routines, whether you’re adjusting rugs in the stable or before turnout. Quick to attach and remove, it’s a practical spare or replacement tail cord to keep on hand so your rugs stay functional through regular riding and rest days.</t>
+          <t>The WEATHERBEETA Stretchy Rug Tail Cord is a simple, easy-to-use replacement for traditional tail straps on compatible rugs. With a smooth, rounded finish that sits neatly along the back of the leg area, it’s designed to be clipped on and off quickly when changing rugs or adjusting fit. The stretch helps allow natural movement while helping keep the rug sitting where it should, provided the rug itself is correctly fitted. It’s a small, practical spare to keep in the gear bag for everyday rugging routines.</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>The Zilco Show Circuit Cotton Rug is a smart cotton layer suited to stable wear or for those times you’d like a neater look when your horse is tied up or walking about. Made from 300 gsm cotton with double binding, it offers a solid, weighty feel without heavy bulk, giving straightforward coverage when correctly fitted. Red and white contrasting binding adds a clean, striking edge that stands out without being fussy. Used on its own or teamed with matching pieces from the range, this rug provides a tidy, practical option for everyday care or show-day preparation.</t>
+          <t>The ZILCO Show Circuit Cotton Rug offers a smart, double bound 300 g cotton design with contrasting binding that gives a crisp, tailored look. Made from substantial cotton, it’s suited to stable use or those outings where you want a coordinated, show-ready presentation. The bound edges add structure and help the rug sit neatly when fitted correctly, while the cotton fabric offers a familiar feel that’s easy to care for by following the washing instructions. Ideal as part of a matching set when you want a tidy, consistent appearance.</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>The WeatherBeeta Lycra Tail Bag is designed to help keep your horse’s tail cleaner for longer, whether you’re getting ready for an event or simply want a bit less grooming each day. Four-way stretch fabric fits closely around the plaited tail, and the zip closure secures it without relying on touch tape attachments. Used on its own or with a stretch hood, it’s easy to put on: plait the tail, tuck it into the bag and zip it up. When it needs freshening, it goes straight in the washing machine, ready to use again in your regular grooming routine.</t>
+          <t>The WEATHERBEETA Lycra Tail Bag uses a four-way stretch fabric to cover and protect the tail, helping keep it cleaner between washes. Its sleek, close-fitting shape sits smoothly once in place. To use, plait the tail, place it into the bag and secure with the zip—no touch tape attachment is needed. It can be used alongside stretch hoods or by itself, depending on your grooming routine. Machine washable for straightforward care, it’s a practical option for travel, show preparation or general tail maintenance when used considerately.</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>The Kool Coat Classic Tail Bag offers straightforward tail protection that matches neatly with the Kool Coat Classic range. A 270 g polyester ripstop outer provides a strong feel for regular use, while the touch tape attachment keeps application quick and simple when used with Kool Coat sheets designed to take a tail bag. The lined interior helps the tail stay cleaner between washes, which can be especially handy before shows or when the paddock is muddy. With over 90% UV protection stated for the outer, it can assist in shielding the covered tail hair from strong sun when correctly fitted.</t>
+          <t>The KOOL COAT Classic Tail Bag is built around a strong 270 g polyester ripstop outer with a smooth, structured look, designed to pair with Kool Coat Classic sheets. Touch tape attachment makes it straightforward to put on and take off, while the internal lining helps keep the tail cleaner during everyday use or travel. It’s designed to fit all Kool Coat sheets in the range and offers substantial tail coverage, including stated UV protection, when correctly attached. A simple rinse or gentle wash between uses helps keep it ready for the next outing.</t>
         </is>
       </c>
     </row>

--- a/horseland_products_described.xlsx
+++ b/horseland_products_described.xlsx
@@ -497,7 +497,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA ComFiTec Essential Neck Rug Medium is a handy add-on when extra neck coverage is needed, giving you the flexibility to match protection to the conditions. Designed to attach neatly to compatible rugs, it sits smoothly along the neckline for a tidy, streamlined finish. Ideal for those in-between days when a full wardrobe change isn’t necessary, it’s simple to put on, remove, and store so you can adjust coverage as the weather shifts and still keep your existing rug set-up in use.</t>
+          <t>The WEATHERBEETA ComFiTec Essential Neck Rug Medium is a handy add-on when your horse needs a bit more coverage through the neck, whether the weather turns or you simply want extra protection to pair with a compatible rug. Designed to connect easily to matching styles, it helps extend the area shielded from the elements without adding unnecessary bulk. It’s a straightforward, no-fuss option to keep on hand for changing conditions, with a smooth outer finish that gives it a neat, tidy look when fitted correctly.</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>The COMBAT Canvas Neck Rug Medium I is built for practical, everyday use, with a strong 14oz canvas outer and a soft polyester/cotton lining to keep things comfortable. It clips directly to the Combat Standard Neck Rug to extend coverage when extra protection is needed. A versatile and durable design, it sits neatly along the crest and fastens securely, helping it stay in place through regular movement. It’s a straightforward, workmanlike choice when you want the toughness of canvas and the flexibility of removable neck coverage.</t>
+          <t>Built for practical use, the COMBAT Canvas Neck Rug Medium I adds extra neck coverage to your Combat Standard Neck Rug when you need it. The 14oz canvas outer is paired with a polyester/cotton lining to sit comfortably against the coat, while clips are positioned to attach smoothly to your existing rug. This design aims to balance strength and everyday practicality rather than add unnecessary weight, so you can adjust your horse’s coverage as conditions shift. Its clean stitching gives the rug a sturdy, orderly appearance once attached.</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA ComFiTec Plus Dynamic II Neck Rug Medium is made from a super strong 1200 denier triple weave outer with Guard-Tec coating, designed to be both waterproof and breathable. With 220g polyfill for added warmth, it attaches via three ski clips to a standard neck rug to extend protection through the neck area. Compatible with the WeatherBeeta ComFiTec range, it offers a smooth, close fit along the neckline without changing your main rug. Only the neck rug is included, so it can be matched with your existing ComFiTec rug set-up.</t>
+          <t>The WEATHERBEETA ComFiTec Plus Dynamic II Neck Rug Medium is made to team with compatible ComFiTec rugs when your horse needs more protection along the neck. It features a 1200 denier triple weave outer with Guard-Tec coating designed to resist moisture while still allowing airflow, along with 220g polyfill for added warmth. Three ski clips secure it to the standard neck rug, keeping the setup straightforward to attach and remove. Only the neck rug is supplied, and its tidy, straight profile helps it sit neatly when correctly fitted.</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>The KOOL COAT Cotton Neck Rug combines a 60% cotton blend for natural breathability with a strong 270g polyester ripstop outer for everyday wear. A three ski clip closure and clip under the chin, plus adjustable connection straps with clips and sliders, are designed to help prevent slipping, while the scrunch neck design helps keep it comfortably in place. It is intended to add extra protection from cold winds when attached correctly to a compatible rug. With a smooth outer finish and machine washable fabric, it’s a practical choice for regular use.</t>
+          <t>The KOOL COAT Cotton Neck Rug offers extra coverage for the neck area using a 60% cotton blend for breathability, backed by a 270g polyester ripstop outer for everyday use. Three ski clips and a chin clip help keep it in place, with adjustable connection straps and sliders designed to reduce slipping when properly fitted. A scrunch neck shape is intended to sit more closely around the neck, and the rug is machine washable for easy care between uses. Its streamlined outline gives a neat, close look once secured.</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>The KOOL COAT Classic Neck Rug is made with a strong 270g polyester ripstop outer, suited to everyday use when you need extra coverage. It features a three ski clip closure and a clip under the chin, along with adjustable connection straps with clips and sliders to help keep it secure and reduce slipping. The scrunch neck design helps it sit in place along the neck, providing added protection from cold winds when teamed with an appropriate rug. With a clean, uncomplicated finish and machine washable materials, it’s an easy-care option for routine rugging.</t>
+          <t>The KOOL COAT Classic Neck Rug is designed for regular use when you want added coverage along your horse’s neck. It uses a 270g polyester ripstop outer to handle day-to-day wear, with three ski clips and a chin clip to fasten it securely to compatible rugs. Adjustable straps with clips and sliders allow you to fine-tune the fit to help minimise movement, while the scrunch-style neck is shaped to sit more snugly. Easy to wash in the machine, it is a straightforward extra layer for cooler or windy conditions, with clean stitching for a tidy finish.</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>The KOOL COAT Neck Rug Lite is designed as a lighter-weight option, using a 205g polyester outer that’s suitable for use across the seasons when only a bit of extra coverage is needed. A three ski clip closure, clip under the chin, and adjustable connection straps with clips and sliders are intended to help keep it secure and limit slipping. The scrunch neck design helps it stay in place while offering additional protection from cold winds when attached to a compatible rug. With a smooth, simple finish and machine washable fabric, it’s a straightforward piece to add to your rug set.</t>
+          <t>The KOOL COAT Neck Rug Lite provides a lighter option for horses needing extra neck coverage without too much warmth. Its 205g polyester outer keeps the weight down for use across varying seasons, and the three ski clips plus chin clip are arranged to attach easily to suitable rugs. Adjustable connection straps with clips and sliders help you set a comfortable, secure fit, and the scrunch neck styling is shaped to sit closer along the neck. Being machine washable simplifies routine care, and the straight, simple profile keeps the rug looking neat in place.</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Luxe Snug Fleece Neck Rug is designed for cosy warmth, made from soft fleece that sits comfortably along the neck. An elastic surcingle around the belly allows it to be used on its own, without needing connecting straps to a rug, while the full length zip from chin to chest makes it easier to put on and take off. The scrunch neck design helps it stay in place, providing extra protection from cold winds during cooler weather. With a neat, streamlined shape and machine washable fabric, it’s a practical choice for regular, considerate use in chillier conditions.</t>
+          <t>The WEATHERBEETA Luxe Snug Fleece Neck Rug is designed to give a cosy layer over your horse’s neck and body when extra warmth is needed. Soft fleece fabric covers the neck, with an elastic surcingle around the belly that allows it to be worn without relying on additional connecting straps. A full-length zip running from chin to chest is intended to make putting it on and taking it off more straightforward, while the scrunch neck style is shaped to help it stay in position when properly adjusted. Machine washable for convenience, it has a smooth outer finish that looks tidy when fitted.</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Cotton Summer Sheet Neck Rug is designed to work with the Summer Sheet range, offering extra coverage when the sun is out. With a high cotton content for natural breathability and materials that provide over 90% UV protection, it’s suited to warmer conditions where lightweight coverage is preferred. It attaches to the matching Summer Sheet to extend protection through the neck without adding unnecessary bulk, and its light, breathable construction helps maintain airflow. With a clean, simple finish, it’s a useful add-on for sunny days when extra coverage is wanted.</t>
+          <t>The WEATHERBEETA Cotton Summer Sheet Neck Rug is made to attach to the Cotton Summer Sheet range when you want more coverage for the neck during sunnier months. With a high cotton content, it aims to remain breathable while still contributing to sun protection, and is designed to be lightweight so it can be used in warmer weather without adding unnecessary bulk. The attachment points are arranged to integrate with the matching sheet so your setup stays simple and consistent. Its neat, streamlined outline helps it sit closely along the neck once connected.</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Lined Canvas Neck Rug adds practical extra coverage, using a strong canvas outer with a polyester/cotton lining for a comfortable feel. Designed to give additional neck protection when required, it features adjustable straps to help achieve a secure attachment and a stable fit through normal movement. It’s compatible with WeatherBeeta canvas rugs, allowing you to extend an existing set-up rather than change your whole rug. With a plain, workmanlike finish, it’s a straightforward solution for those times you want to increase neck coverage as conditions change.</t>
+          <t>The WEATHERBEETA Lined Canvas Neck Rug is a practical choice when you want to add extra neck coverage to a compatible WeatherBeeta canvas rug. It uses a tough canvas outer with a polyester/cotton lining that sits against the coat, aimed at balancing strength with everyday comfort. Adjustable straps allow you to tailor how it attaches for a stable fit, making it easier to adapt your horse’s rugging as conditions change rather than swapping entire rugs. Its clean stitching gives the neck rug an orderly, well-finished appearance when in use.</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Cosy Fleece Neck Rug is made from soft, warm fleece, ideal when extra protection from cold winds is needed. An elastic connection with clips and straps is designed to help prevent slipping, while the full length zip from chin to chest makes it easier to put on and remove without fuss. The scrunch neck design helps keep it sitting comfortably in place along the neck. With a tidy, uniform fleece surface and machine washable fabric, it’s a practical, everyday option for cooler weather when you want to add warmth without changing the main rug.</t>
+          <t>The WEATHERBEETA Cosy Fleece Neck Rug is designed as a soft extra layer when your horse needs more warmth across the neck. Made from fleece fabric, it includes an elastic connection with clips and straps to help hold it in place when correctly adjusted. A full-length zip from chin to chest is intended to make it easier to put on and remove, while the scrunch neck shape is designed to sit more closely along the neck. Machine washable for straightforward care, it has a smooth outer finish that keeps the overall look tidy.</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Cosy Deluxe Fleece Neck Rug is made from warm fleece fabric, intended to add comfort and extra protection in cooler conditions. An elastic surcingle connection with clips and straps is designed to help reduce slipping, while the full length zip from chin to chest allows for easy on and off, supported by a simple zip closure design. The scrunch neck construction helps it stay in place during normal movement. With a smooth, even fleece finish and machine washable materials, it’s an uncomplicated way to add flexible neck coverage to your rugging routine.</t>
+          <t>The WEATHERBEETA Cosy Deluxe Fleece Neck Rug offers a warm fleece layer for the neck with a focus on ease of use. An elastic surcingle connection with clips and straps is designed to help keep the rug steady when properly fitted, while the full-length zip from chin to chest allows you to take it on and off without too much fuss. The scrunch neck style is shaped to sit closer around the neck, and the rug is machine washable to simplify ongoing care. Its straight, even profile helps it sit neatly once fastened.</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>The KOOL COAT Neck Rug Clips pack includes four replacement clips designed specifically for Kool Coat combo and neck rugs. They offer a straightforward way to refresh worn or lost hardware so rugs can continue to fasten securely as intended. With a simple, tidy metal finish, these clips are made for practical, everyday use and are best fitted carefully to compatible attachment points to help maintain a safe, reliable connection.</t>
+          <t>KOOL COAT Neck Rug Clips come as a set of four replacements for use with Kool Coat combo and neck rugs, giving you a straightforward way to swap out worn or lost clips without replacing the whole rug. Designed to connect with existing attachment points, they help restore a secure fastening so your neck rug can stay in place when correctly adjusted. They’re a simple, practical spare to keep on hand in your tack room, and their clean, compact shape sits tidily against the rug hardware when fitted.</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Designed for play and display, the Breyer Rug Float Boot Set adds a realistic touch to model-horse travel scenes. Neatly shaped boots and rug sit smoothly together, helping young enthusiasts imagine sensible rugging and leg protection when travelling or stabled. Sturdy enough for everyday play, this set is a fun way to encourage gentle handling and thoughtful care routines around model gear. Ideal for Breyer Traditional scale models, it pairs well with other accessories for those who like setting up floats, yards, or stable setups in miniature.</t>
+          <t>The Breyer Rug Float Boot Set is designed to dress up and protect your Traditional model horses during make-believe travel or stable time. Sized for Breyer Traditional scale, this coordinated rug and boot set encourages gentle, thoughtful play while helping young horse lovers act out everyday care routines. Easy-to-handle fastenings make it simple for small hands to put on and take off, supporting imaginative stories about loading, unloading, and quiet resting in the float. The set has a smooth outer finish that gives each piece a neat, tidy look in any display or play scene.</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Traditional Sir Rugger Chex Checkers brings a characterful model into any collection, with a clean, well-fitted rug that sits neatly along the body for a tidy finish. This model is a simple way to inspire conversations about considerate care, regular grooming, and appropriate rug use in different weather. It works well as a display piece or as part of imaginative play, where children can practise haltering, rugging and un-rugging their models calmly and thoughtfully. A straightforward, no-fuss addition for anyone who enjoys a classic checked-rug look in their lineup.</t>
+          <t>The Breyer Traditional Sir Rugger Chex Checkers brings a playful checked horse to your Breyer stable, ideal for collectors and young horse fans who enjoy detailed models. Sized to match other Breyer Traditional pieces, it fits naturally into existing barns, paddocks, and play setups. This model encourages calm, thoughtful handling and storytelling about grooming, feeding, and turnout, helping children learn gentle routines around horses. Durable enough for regular play, it also sits nicely on a shelf for display. Cleanly defined markings give the horse a crisp, characterful look from every angle.</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Equinade Rug Seal is a practical waterproofing treatment for cotton canvas, suited to paddock rugs, tents, tarpaulins and awnings that need help resisting water, mildew and dry rot. It leaves a smooth, even finish when applied correctly and can be brushed or sprayed on, making it handy for both quick touch-ups and full reproofing jobs. Always follow the use directions on the container, allow thorough drying, and ensure good ventilation when applying so gear is ready for comfortable, everyday use once treated.</t>
+          <t>Equinade Rug Seal is a treatment formulated for cotton canvas to help reduce water penetration while supporting everyday use of paddock rugs, tents, tarpaulins, and awnings. It is designed to assist canvas in resisting mildew and dry rot when used as directed, making it a practical option for gear regularly exposed to the elements. The liquid can be applied either with a brush or by spraying, allowing you to choose a method that suits your setup. Always follow the product instructions and allow adequate drying time before use on your horse or equipment, and the container’s smooth outer finish makes handling straightforward.</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>The Kincade Adjustable Portable Rug Rail is a simple way to keep rugs and sheets off the ground and neatly aired wherever you are. With a smooth, straight rail design, it sits tidily against a wall or fence in a stable, float or yard. Its adjustable and portable nature makes it handy for drying rugs between uses or organising gear on busy days. Set it up securely on a suitable surface and you’ll have a practical spot to hang rugs, saddle pads or lightweight blankets whenever you need them most.</t>
+          <t>The Kincade Adjustable Portable Rug Rail offers a simple way to hang rugs, saddle pads, or lightweight gear wherever you need extra storage. Its adjustable design lets you position it to suit different spaces, from stable aisles to tack rooms or wash bays, and it can be moved as your setup changes. Suitable for everyday use around the yard, it helps keep rugs off the ground and better organised between uses. With a straightforward shape and tidy straight profile, it blends easily into most stable environments while remaining practical and unobtrusive.</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>The LeMieux Toy Pony Fly Rug is a detailed little rug for toy collections, made from gladiator mesh with tidy binding that gives it a smart, finished look. Featuring a detachable neck, T-bar front closure, tail flap and surcingles, it’s designed to mirror full-size fly rugs so children can practise gentle rugging and un-rugging on their toy ponies. It even comes with a mini rug bag, making it easy to store between play sessions. Suitable for ages 3+, it encourages thoughtful, calm handling habits from an early age.</t>
+          <t>The LeMieux Toy Pony Fly Rug is a miniature fly sheet designed for LeMieux toy ponies, giving young riders a realistic way to practise thoughtful rugging routines. Made from mesh similar in style to a full-sized fly rug, it includes a detachable neck, T-bar front closure, tail flap, and surcingles to help children learn how different parts of a rug sit and fasten. It comes with its own small rug bag, adding to the sense of caring for a pony’s gear between “rides.” Suitable for ages 3 and over, it supports gentle, imaginative play, and the neat binding gives the rug a tidy, finished look on the toy.</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>The LeMieux Toy Pony Rug is a soft fleece rug for toy ponies, finished with neat braiding and a small hip ornament detail to match the full-size version. With simple hook-and-loop fastenings, it’s easy for little hands to put on and take off while practising calm, kind rug-handling skills. The smooth fleece fabric sits nicely along the body for a snug, show-style look in miniature. Suitable for ages 3 years and over, it’s a straightforward way to bring everyday rug routines into make-believe stables and shows.</t>
+          <t>The LeMieux Toy Pony Rug is a fleece-style rug sized specifically for LeMieux toy ponies, ideal for make-believe cool-downs and stable time. Soft fabric offers a cosy appearance, while simple hook-and-loop fastenings allow children to rug and un-rug their toy pony with ease. Decorative braiding and hip detail echo the look of the full-sized LeMieux fleece rugs, helping youngsters feel more involved in everyday horse care routines. Designed for play from 3 years and up, it encourages calm, hands-on interaction and stable-themed storytelling, and the smooth fleece surface gives it a snug, cared-for look on the toy.</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>The LeMieux Toy Pony Winners Rug is styled like a classic winners throw-over, with a rich navy body and crisp contrast braiding that frames the edges neatly. Made to echo real prize rugs, it features a T-bar front closure backed with hook-and-loop tape and a small bib at the chest to help it sit in place. Braided hip ornaments and a fillet cord add a touch of show-ring detail for play scenes. It’s ideal for rewarding favourite toy ponies after make-believe competitions while reinforcing gentle, patient handling habits.</t>
+          <t>The LeMieux Toy Pony Winners Rug is a throw-over style rug for toy ponies, designed to celebrate make-believe wins at home shows and pretend competitions. Styled like a traditional winner’s rug, it features a chest bib with a T-bar and hook-and-loop backing for simple fastening, along with braided hip ornaments and a fillet cord detail for extra show-day flair. This miniature rug helps children act out prize-giving moments and learn gentle handling around the chest and hindquarters of their toy pony. The clear contrast braiding around the edges gives the rug a smart, finished outline in any play scene.</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>The Pure Western PW Cactus Snuggle Rug is made from a soft-feel fabric with a plush sherpa lining for cosy warmth, and it drapes smoothly for comfortable snuggling on the lounge, in the float or at events. Light yet comforting, it’s handy to throw over legs and shoulders on cooler days or to keep in the car or gear box as an extra layer. Easy to fold and pack away, it offers a simple comfort piece for riders, spectators and helpers looking for a warm, relaxed wrap after long days outside.</t>
+          <t>The Pure Western PW Cactus Snuggle Rug is made for curling up on the couch, in the car, or at home on cooler days. Crafted from soft-feel fabric with a plush sherpa-style lining, it is designed to offer a warm, cosy layer without feeling heavy. Its generous size makes it suitable for both kids and adults who enjoy a relaxed Western-inspired look while they relax, read, or watch a movie. Easy to fold and store when not in use, it’s a handy everyday blanket for the house or holiday trips, and the smooth outer surface gives it a comfortable, inviting feel.</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>The Pure Western Snuggle Rug Cow Pattern is a cosy throw designed for relaxed moments on the couch, around the fire or at events, with a smooth outer surface that folds down neatly when not in use. Soft to the touch and light to carry, it’s easy to keep in the car, float or tack room for an extra layer when the chill sets in. Spread it over your knees or shoulders on cool evenings, then simply shake, fold and stow it away until the next outing or quiet night in.</t>
+          <t>The Pure Western Snuggle Rug Cow Pattern is a cosy throw designed for everyday lounging, whether on the sofa, in the car, or as an extra layer on the bed. Made from soft-touch fabric, it offers a warm, comforting feel that suits cool evenings and relaxed weekends. Lightweight enough to carry from room to room, it folds away neatly when not in use and is a practical choice for family spaces or kids’ rooms. The playful cow-print pattern adds a bit of fun to your decor while the material drapes with a smooth, comfortable finish over laps or chairs.</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>The Roma 2 Arm Tack &amp; Rug/Blanket Rack offers a straightforward way to hang and air rugs, saddle pads and blankets, with two smooth arms that sit neatly side by side. Ideal for stables, tack rooms or floats, it helps keep gear off the ground and easier to find between rides. Mount it securely on a suitable surface and use it for drying damp items or storing clean rugs ready for the next use. A simple, space-conscious organiser for everyday horse-gear setups and busy shared tack spaces.</t>
+          <t>The Roma 2 Arm Tack &amp; Rug/Blanket Rack provides a straightforward way to hang and air rugs, blankets, saddle pads, or light tack in the stable or tack room. Two arms offer space to separate items for easier drying and organisation, helping keep your gear off the floor between uses. Designed to be mounted on a suitable surface, it’s a practical storage solution for busy yards, wash bays, or float set-ups. When not loaded with rugs, it sits close to the wall for a tidy look, and the streamlined profile helps it fit neatly into narrow or crowded areas.</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>The Thomas Cook Horse Snuggle Rug in Pink is a soft-feel throw designed for warmth and comfort, and it folds smoothly for easy storage between uses. Light enough to keep close by but cosy when wrapped around shoulders or knees, it’s a handy layer for cool evenings at home, by the arena or on the road. Keep it in the car, float or lounge for quick access whenever you want a bit of extra warmth without the bulk of a heavy blanket.</t>
+          <t>The Thomas Cook Horse Snuggle Rug (Pink) is a soft, cosy throw designed for comfort and warmth on the couch, in the car, or as an extra layer on the bed. Made from gentle-feel fabric, it’s suitable for kids and adults who like to wrap up and relax, especially on cooler days. Lightweight yet snug, it’s easy to fold, pack, or carry from room to room as needed. Ideal for everyday use at home or on trips, it adds a touch of horse-inspired charm to quiet downtime, and the clean stitching along the edges gives it a neat, finished appearance.</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>The Thomas Cook Horse Snuggle Rug in Grey is a soft, comfortable throw that drapes smoothly when wrapped around shoulders or spread over knees. Made for simple warmth on cooler days, it’s easy to fold, pack and keep in the car, float or living room for when the temperature drops. Suitable for everyday use, it gives a gentle, cosy layer without feeling heavy or cumbersome, making it a practical addition to long days ringside, camping trips or relaxed evenings at home.</t>
+          <t>The Thomas Cook Horse Snuggle Rug (Grey) is a comfortable throw rug designed to bring a warm, relaxed layer to your lounge, bedroom, or travel kit. Soft-touch fabric helps create a cosy feel when you curl up with a book, watch a movie, or wind down after a long day at the paddock. Light enough to move easily between rooms or pack into the car, it’s a practical choice for everyday use. The simple, horse-themed styling suits a wide range of tastes and spaces, and the neatly finished edges give the rug a tidy, well-made look wherever it’s used.</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Soft, cosy and easy to live with, the THOMAS COOK Tc Sheep Snuggle Rug is made for everyday use when you want a relaxed, snug layer. The simple, tidy finish keeps the look clean while the fleece-style inner adds a touch of comfort on cooler days. It’s a practical choice for regular wear around the stables or at home, with a straightforward design that’s easy to put on and take off. Just air it out between uses and follow the care label to help it stay comfortable and ready for the next outing.</t>
+          <t>The THOMAS COOK Tc Sheep Snuggle Rug is designed as a cosy extra layer for cooler days, helping to keep your horse comfortable around the yard or in the paddock. Soft, fleece-like fabric offers a gentle feel against the coat, while simple fastenings make it straightforward to put on and remove without fuss. It’s intended as a light, everyday rug option rather than heavy-weather protection, so it works well for mild conditions or indoor use. A clean, smooth outer finish gives it a tidy look while your horse relaxes or moves about.</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Conquest Rug Bag offers a straightforward way to store and carry rugs, combining a modern, tidy outer with practical detailing. Designed to help keep rugs together and easier to transport, it suits travel days, competition gear runs or simply tidying the tack room. Sturdy construction and considered finishes give it a neat, organised feel without being fussy. Zip it up, stash your clean or dry rugs, and they’re ready to grab when you are, helping keep your gear in one place between uses.</t>
+          <t>The WEATHERBEETA Conquest Rug Bag offers a practical way to store and carry your horse rugs between home, float, and stable. Made from sturdy materials with a structured shape, it helps keep rugs together and protected from dust and light moisture during transport or when stowed away. Thoughtful strap placement makes it easier to handle, whether you’re lifting it into the car or stacking it in the tack room. A simple zip closure allows quick access to contents, and the plain, streamlined profile keeps everything looking neat on the go.</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Rug/Blanket Storage Bag is a handy solution for keeping rugs and blankets dry and clean when they’re not in use. Its smooth, structured outer helps it sit neatly in a tack room, float or shed, so gear is easier to find and store. Ideal for folded, dry rugs, it helps protect them from dust and splashes around the paddock or stable. Just load it up, zip it closed and your rug is ready for the next change of weather without rummaging through loose piles of gear.</t>
+          <t>The WEATHERBEETA Rug/Blanket Storage Bag is a handy solution for tidying away spare rugs, keeping them organised when not in use. Built from a durable fabric with a protective outer layer, it is suited to storing clean, dry rugs so they stay ready for the next season. A large main compartment provides room for folded rugs or blankets, while a secure closure helps keep out dust and stable debris. Carry handles make it easier to shift between float, shed, and tack room, and the smooth outer finish gives it a simple, uncluttered appearance.</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Stretchy Rug Tail Cord is a simple, easy-to-use replacement for traditional tail straps on compatible rugs. With a smooth, rounded finish that sits neatly along the back of the leg area, it’s designed to be clipped on and off quickly when changing rugs or adjusting fit. The stretch helps allow natural movement while helping keep the rug sitting where it should, provided the rug itself is correctly fitted. It’s a small, practical spare to keep in the gear bag for everyday rugging routines.</t>
+          <t>The WEATHERBEETA Stretchy Rug Tail Cord is designed as a convenient replacement or spare cord for compatible horse rugs, helping to keep the rug sitting where it should without restricting movement. The stretch material allows for a bit of give as the horse walks and moves, while clips at each end make it straightforward to attach and remove from rug D-rings. It’s intended for everyday use and should be checked regularly for wear as part of normal rug maintenance, and its tidy, straight profile helps it sit close to the rug for a neat look.</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>The ZILCO Show Circuit Cotton Rug offers a smart, double bound 300 g cotton design with contrasting binding that gives a crisp, tailored look. Made from substantial cotton, it’s suited to stable use or those outings where you want a coordinated, show-ready presentation. The bound edges add structure and help the rug sit neatly when fitted correctly, while the cotton fabric offers a familiar feel that’s easy to care for by following the washing instructions. Ideal as part of a matching set when you want a tidy, consistent appearance.</t>
+          <t>The ZILCO Show Circuit Cotton Rug is made from 300 g cotton, offering a breathable stable and show rug option for milder conditions. Double binding adds structure around the edges, and the contrasting trim gives a clear outline so it stands out neatly without being overdone. Standard rug fittings are designed to help it sit comfortably when correctly adjusted, making it suitable for use in the stable, at events, or while waiting ringside. With its straightforward cut and a clean, straight profile along the body, it presents a tidy finish on your horse.</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>The WEATHERBEETA Lycra Tail Bag uses a four-way stretch fabric to cover and protect the tail, helping keep it cleaner between washes. Its sleek, close-fitting shape sits smoothly once in place. To use, plait the tail, place it into the bag and secure with the zip—no touch tape attachment is needed. It can be used alongside stretch hoods or by itself, depending on your grooming routine. Machine washable for straightforward care, it’s a practical option for travel, show preparation or general tail maintenance when used considerately.</t>
+          <t>The WEATHERBEETA Lycra Tail Bag is made from a four-way stretch fabric that gently encases the tail to help keep it cleaner between washes. Designed to be used on a neatly plaited tail, it slips over and secures with a zip, avoiding the need for touch tape attachments. The stretchy material allows the tail to sit naturally while being covered, and the bag can be used on its own or alongside compatible stretch hoods. It’s machine washable for straightforward care, and the smooth outer finish gives it a simple, close-fitting look.</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>The KOOL COAT Classic Tail Bag is built around a strong 270 g polyester ripstop outer with a smooth, structured look, designed to pair with Kool Coat Classic sheets. Touch tape attachment makes it straightforward to put on and take off, while the internal lining helps keep the tail cleaner during everyday use or travel. It’s designed to fit all Kool Coat sheets in the range and offers substantial tail coverage, including stated UV protection, when correctly attached. A simple rinse or gentle wash between uses helps keep it ready for the next outing.</t>
+          <t>The KOOL COAT Classic Tail Bag features a 270 g polyester ripstop outer, designed to offer a tough yet lightweight cover for your horse’s tail. An internal lining helps shield the hair from dust and stable dirt, while the touch tape attachment allows you to fit and remove it with minimal effort. It is shaped to coordinate with Kool Coat Classic sheets and is made to fit all rugs in that range, giving a consistent look when used together. With its plain design and neat, straight profile, it sits cleanly against the hindquarters when correctly attached.</t>
         </is>
       </c>
     </row>
